--- a/Excel Sheets/calibration_referencepulses.xlsx
+++ b/Excel Sheets/calibration_referencepulses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kx2\Documents\kxu\Trimic-Gripper-Attachment-Signal-Processing\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kev\Documents\kxu\CMU\Year 1\Trimic-Gripper-Attachment-Signal-Processing\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E17C7F-DFF6-49AC-ADE6-1631C8C623A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797F8DF-B4A2-4B56-983F-159A55E0C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{1D29F1BE-89AE-4FDC-BF50-A5D1E4CFB104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D29F1BE-89AE-4FDC-BF50-A5D1E4CFB104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,1682 +404,2270 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F1DA9C-F41D-4E27-BEC9-B17ACBB00647}">
   <dimension ref="A1:ET5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:CW5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>91.153965045590994</v>
+        <v>79.487860934146099</v>
       </c>
       <c r="B1">
-        <v>91.799813034499905</v>
+        <v>84.377836314236603</v>
       </c>
       <c r="C1">
-        <v>91.732524965994301</v>
+        <v>87.672086951172503</v>
       </c>
       <c r="D1">
-        <v>91.595488781307907</v>
+        <v>88.3379311098724</v>
       </c>
       <c r="E1">
-        <v>89.703726576593894</v>
+        <v>87.434903816576494</v>
       </c>
       <c r="F1">
-        <v>87.058092007037203</v>
+        <v>85.028436351698701</v>
       </c>
       <c r="G1">
-        <v>85.752028099946401</v>
+        <v>81.291976968769305</v>
       </c>
       <c r="H1">
-        <v>83.354919689961804</v>
+        <v>78.633223399003498</v>
       </c>
       <c r="I1">
-        <v>81.326322773563405</v>
+        <v>76.676164232393901</v>
       </c>
       <c r="J1">
-        <v>79.737680283725794</v>
+        <v>75.075868136080302</v>
       </c>
       <c r="K1">
-        <v>78.794777324452994</v>
+        <v>73.854942663010107</v>
       </c>
       <c r="L1">
-        <v>78.040574917945307</v>
+        <v>72.829080755741003</v>
       </c>
       <c r="M1">
-        <v>77.697051385630701</v>
+        <v>71.997884428386598</v>
       </c>
       <c r="N1">
-        <v>76.894751245323405</v>
+        <v>71.365277749804505</v>
       </c>
       <c r="O1">
-        <v>75.686712826980497</v>
+        <v>70.723619959126296</v>
       </c>
       <c r="P1">
-        <v>75.003376447723596</v>
+        <v>70.090024432783196</v>
       </c>
       <c r="Q1">
-        <v>74.843824693416096</v>
+        <v>69.501915015167398</v>
       </c>
       <c r="R1">
-        <v>74.9756730245862</v>
+        <v>68.932370297825798</v>
       </c>
       <c r="S1">
-        <v>74.852650057788495</v>
+        <v>68.420753866248106</v>
       </c>
       <c r="T1">
-        <v>74.540978598010696</v>
+        <v>68.669588627719605</v>
       </c>
       <c r="U1">
-        <v>72.9498015946522</v>
+        <v>68.583877956103194</v>
       </c>
       <c r="V1">
-        <v>71.533197526880301</v>
+        <v>67.134016124352797</v>
       </c>
       <c r="W1">
-        <v>70.778275586167595</v>
+        <v>65.257026855091297</v>
       </c>
       <c r="X1">
-        <v>70.108887966185407</v>
+        <v>62.841991588147103</v>
       </c>
       <c r="Y1">
-        <v>69.231982034309794</v>
+        <v>59.888700445798499</v>
       </c>
       <c r="Z1">
-        <v>68.224945386999096</v>
+        <v>56.865459709485798</v>
       </c>
       <c r="AA1">
-        <v>66.374248957870506</v>
+        <v>55.379112737364302</v>
       </c>
       <c r="AB1">
-        <v>64.774995793357803</v>
+        <v>54.7268477364332</v>
       </c>
       <c r="AC1">
-        <v>63.2911618139143</v>
+        <v>54.507345465462002</v>
       </c>
       <c r="AD1">
-        <v>62.915282952146299</v>
+        <v>55.328265635182298</v>
       </c>
       <c r="AE1">
-        <v>63.559089750179403</v>
+        <v>57.297151783191403</v>
       </c>
       <c r="AF1">
-        <v>64.740838388228198</v>
+        <v>59.751118685759103</v>
       </c>
       <c r="AG1">
-        <v>65.398605712290205</v>
+        <v>62.476243017791397</v>
       </c>
       <c r="AH1">
-        <v>66.855524046333599</v>
+        <v>65.602847148112005</v>
       </c>
       <c r="AI1">
-        <v>67.174626986377305</v>
+        <v>68.0021269458544</v>
       </c>
       <c r="AJ1">
-        <v>66.237301419404204</v>
+        <v>70.488657113062501</v>
       </c>
       <c r="AK1">
-        <v>66.9303093052077</v>
+        <v>72.975112947065</v>
       </c>
       <c r="AL1">
-        <v>68.497787274072905</v>
+        <v>75.329477276215997</v>
       </c>
       <c r="AM1">
-        <v>70.4567999718453</v>
+        <v>78.104921382805301</v>
       </c>
       <c r="AN1">
-        <v>73.747296018548496</v>
+        <v>81.287441297848503</v>
       </c>
       <c r="AO1">
-        <v>78.674517392096007</v>
+        <v>84.559097017442696</v>
       </c>
       <c r="AP1">
-        <v>82.005051033639006</v>
+        <v>87.533071604285098</v>
       </c>
       <c r="AQ1">
-        <v>85.523238474058601</v>
+        <v>89.692775117223206</v>
       </c>
       <c r="AR1">
-        <v>88.665312839195906</v>
+        <v>91.001144304892193</v>
       </c>
       <c r="AS1">
-        <v>90.345400604974103</v>
+        <v>91.864423643658398</v>
       </c>
       <c r="AT1">
-        <v>90.472823921158906</v>
+        <v>92.388150914425296</v>
       </c>
       <c r="AU1">
-        <v>90.170512453293</v>
+        <v>90.113590628782404</v>
       </c>
       <c r="AV1">
-        <v>88.700302560527803</v>
+        <v>86.1879405654024</v>
       </c>
       <c r="AW1">
-        <v>86.923022471798504</v>
+        <v>82.169301708997295</v>
       </c>
       <c r="AX1">
-        <v>85.924630084351506</v>
+        <v>78.202385450838605</v>
       </c>
       <c r="AY1">
-        <v>85.300711844991199</v>
+        <v>74.530348687241897</v>
       </c>
       <c r="AZ1">
-        <v>84.391068643470206</v>
+        <v>74.336521956959501</v>
       </c>
       <c r="BA1">
-        <v>82.530591976341398</v>
+        <v>76.532924040954299</v>
       </c>
       <c r="BB1">
-        <v>81.328049388839304</v>
+        <v>78.657556139713904</v>
       </c>
       <c r="BC1">
-        <v>81.153844620321095</v>
+        <v>80.016276333944901</v>
       </c>
       <c r="BD1">
-        <v>81.622877097894104</v>
+        <v>80.6964792168218</v>
       </c>
       <c r="BE1">
-        <v>81.1619212527592</v>
+        <v>80.690707971136007</v>
       </c>
       <c r="BF1">
-        <v>79.178939614540795</v>
+        <v>77.483577033465707</v>
       </c>
       <c r="BG1">
-        <v>76.304494877236493</v>
+        <v>74.335840964985806</v>
       </c>
       <c r="BH1">
-        <v>73.105144188464394</v>
+        <v>72.134783282541093</v>
       </c>
       <c r="BI1">
-        <v>70.608668325596796</v>
+        <v>70.232114550610504</v>
       </c>
       <c r="BJ1">
-        <v>69.594054203817706</v>
+        <v>68.349447601507507</v>
       </c>
       <c r="BK1">
-        <v>70.470784826935599</v>
+        <v>69.418447572601593</v>
       </c>
       <c r="BL1">
-        <v>71.425695315320795</v>
+        <v>70.528317352301201</v>
       </c>
       <c r="BM1">
-        <v>71.336203705722994</v>
+        <v>70.626171596587199</v>
       </c>
       <c r="BN1">
-        <v>70.636027090146101</v>
+        <v>69.790439330077106</v>
       </c>
       <c r="BO1">
-        <v>69.984942841129595</v>
+        <v>68.5012768405484</v>
       </c>
       <c r="BP1">
-        <v>69.626850636192003</v>
+        <v>67.142726379359004</v>
       </c>
       <c r="BQ1">
-        <v>68.988068864927598</v>
+        <v>66.144743520540104</v>
       </c>
       <c r="BR1">
-        <v>67.618701776685896</v>
+        <v>65.724653222872007</v>
       </c>
       <c r="BS1">
-        <v>66.432741884378899</v>
+        <v>66.099336863156495</v>
       </c>
       <c r="BT1">
-        <v>66.190562797711806</v>
+        <v>67.000476257692696</v>
       </c>
       <c r="BU1">
-        <v>66.2581400078152</v>
+        <v>68.084176435737504</v>
       </c>
       <c r="BV1">
-        <v>67.359038250400701</v>
+        <v>69.377904984317297</v>
       </c>
       <c r="BW1">
-        <v>69.601287176376402</v>
+        <v>70.969386308558498</v>
       </c>
       <c r="BX1">
-        <v>71.404980935055207</v>
+        <v>72.790684003029895</v>
       </c>
       <c r="BY1">
-        <v>72.634128952927995</v>
+        <v>74.829187103164699</v>
       </c>
       <c r="BZ1">
-        <v>74.323662034414099</v>
+        <v>77.058120811534593</v>
       </c>
       <c r="CA1">
-        <v>76.198461482820903</v>
+        <v>78.745552504162802</v>
       </c>
       <c r="CB1">
-        <v>78.144502022114096</v>
+        <v>79.374321125890802</v>
       </c>
       <c r="CC1">
-        <v>79.434267654102101</v>
+        <v>78.632329935185794</v>
       </c>
       <c r="CD1">
-        <v>79.281219800601207</v>
+        <v>76.8071454898989</v>
       </c>
       <c r="CE1">
-        <v>77.713212745225604</v>
+        <v>74.422610670681905</v>
       </c>
       <c r="CF1">
-        <v>75.0932882231604</v>
+        <v>72.079691729304599</v>
       </c>
       <c r="CG1">
-        <v>71.402677225040193</v>
+        <v>69.101634975032198</v>
       </c>
       <c r="CH1">
-        <v>64.911863182139101</v>
+        <v>65.247786562338703</v>
       </c>
       <c r="CI1">
-        <v>61.833262115877702</v>
+        <v>62.0406024081243</v>
       </c>
       <c r="CJ1">
-        <v>59.715221082741202</v>
+        <v>61.302424239282203</v>
       </c>
       <c r="CK1">
-        <v>60.709430105335798</v>
+        <v>61.678683732750898</v>
       </c>
       <c r="CL1">
-        <v>63.3218379005841</v>
+        <v>63.699092586487701</v>
       </c>
       <c r="CM1">
-        <v>69.293723506162706</v>
+        <v>67.971568538664698</v>
       </c>
       <c r="CN1">
-        <v>73.189018884911206</v>
+        <v>73.288579433610593</v>
       </c>
       <c r="CO1">
-        <v>76.632265521309094</v>
+        <v>75.208561572591606</v>
       </c>
       <c r="CP1">
-        <v>75.713774601926204</v>
+        <v>74.412580709325894</v>
       </c>
       <c r="CQ1">
-        <v>73.114308155856904</v>
+        <v>72.448893638248606</v>
       </c>
       <c r="CR1">
-        <v>70.978036966366602</v>
+        <v>69.058246603057995</v>
       </c>
       <c r="CS1">
-        <v>68.329557342638395</v>
+        <v>63.1502323002995</v>
       </c>
       <c r="CT1">
-        <v>64.947584902034606</v>
+        <v>57.300197941726701</v>
       </c>
       <c r="CU1">
-        <v>63.786897956966698</v>
+        <v>53.640002586594598</v>
       </c>
       <c r="CV1">
-        <v>64.572459716859001</v>
+        <v>53.307647068855601</v>
       </c>
       <c r="CW1">
-        <v>64.117161042779003</v>
+        <v>55.075912386999001</v>
       </c>
       <c r="CX1">
-        <v>63.331264384020201</v>
+        <v>57.358996108209801</v>
       </c>
       <c r="CY1">
-        <v>64.681086188434605</v>
+        <v>60.179916562406802</v>
       </c>
       <c r="CZ1">
-        <v>65.762542140629193</v>
+        <v>62.360070553908201</v>
       </c>
       <c r="DA1">
-        <v>65.162141880847798</v>
+        <v>61.973468968982402</v>
       </c>
       <c r="DB1">
-        <v>62.959725688276798</v>
+        <v>60.043679354268399</v>
       </c>
       <c r="DC1">
-        <v>61.001207260443998</v>
+        <v>57.680916204145298</v>
       </c>
       <c r="DD1">
-        <v>59.510229663575203</v>
+        <v>55.604369996497397</v>
       </c>
       <c r="DE1">
-        <v>58.136296055997398</v>
+        <v>52.897832164880803</v>
       </c>
       <c r="DF1">
-        <v>57.786871434096497</v>
+        <v>51.144930348677299</v>
       </c>
       <c r="DG1">
-        <v>60.034768198496998</v>
+        <v>50.154139785120798</v>
       </c>
       <c r="DH1">
-        <v>62.171281004854997</v>
+        <v>51.625302150490299</v>
       </c>
       <c r="DI1">
-        <v>60.148149513397897</v>
+        <v>54.177647436044303</v>
       </c>
       <c r="DJ1">
-        <v>59.198895570017498</v>
+        <v>58.688008890899702</v>
       </c>
       <c r="DK1">
-        <v>58.9646939547061</v>
+        <v>63.439613824968603</v>
       </c>
       <c r="DL1">
-        <v>58.846371627773301</v>
+        <v>68.630630042657799</v>
       </c>
       <c r="DM1">
-        <v>59.424568481260501</v>
+        <v>72.945556590139702</v>
       </c>
       <c r="DN1">
-        <v>62.788002143256001</v>
+        <v>76.579041456098494</v>
       </c>
       <c r="DO1">
-        <v>64.067237063808605</v>
+        <v>78.836777699598599</v>
       </c>
       <c r="DP1">
-        <v>63.214830937167797</v>
+        <v>78.509681166916096</v>
       </c>
       <c r="DQ1">
-        <v>65.356225600245196</v>
+        <v>76.311666370704998</v>
       </c>
       <c r="DR1">
-        <v>68.091350316901099</v>
+        <v>74.677720733477102</v>
       </c>
       <c r="DS1">
-        <v>70.733165873289906</v>
+        <v>73.558667165606295</v>
       </c>
       <c r="DT1">
-        <v>73.750266820906404</v>
+        <v>72.727332366644902</v>
       </c>
       <c r="DU1">
-        <v>77.822458899525699</v>
+        <v>73.222154232505702</v>
       </c>
       <c r="DV1">
-        <v>79.221177854678501</v>
+        <v>75.092394600299997</v>
       </c>
       <c r="DW1">
-        <v>80.053412770192693</v>
+        <v>76.039520107761305</v>
       </c>
       <c r="DX1">
-        <v>80.746200112295796</v>
+        <v>75.803198610006405</v>
       </c>
       <c r="DY1">
-        <v>81.448917105358504</v>
+        <v>75.393010058620305</v>
       </c>
       <c r="DZ1">
-        <v>82.169657497639903</v>
+        <v>75.786838961604104</v>
       </c>
       <c r="EA1">
-        <v>82.336498888130606</v>
+        <v>76.028543887844407</v>
       </c>
       <c r="EB1">
-        <v>81.977480117901806</v>
+        <v>75.810820084462804</v>
       </c>
       <c r="EC1">
-        <v>81.1477710240394</v>
+        <v>75.705836614460296</v>
       </c>
       <c r="ED1">
-        <v>80.030483828798907</v>
+        <v>75.705490298578695</v>
       </c>
       <c r="EE1">
-        <v>78.809785727364499</v>
+        <v>74.979523895102901</v>
       </c>
       <c r="EF1">
-        <v>77.407893498731397</v>
+        <v>74.111777035697301</v>
       </c>
       <c r="EG1">
-        <v>75.791542166622904</v>
+        <v>73.788360575002599</v>
       </c>
       <c r="EH1">
-        <v>75.593051576671698</v>
+        <v>73.621320845108798</v>
       </c>
       <c r="EI1">
-        <v>76.053512126652905</v>
+        <v>73.916568646710999</v>
       </c>
       <c r="EJ1">
-        <v>76.710145930996305</v>
+        <v>73.803919669061699</v>
       </c>
       <c r="EK1">
-        <v>77.273758800665604</v>
+        <v>73.135003389048407</v>
       </c>
       <c r="EL1">
-        <v>77.763678428177101</v>
+        <v>72.577270857530905</v>
       </c>
       <c r="EM1">
-        <v>77.125906051883206</v>
+        <v>71.767672156920199</v>
       </c>
       <c r="EN1">
-        <v>76.003876569069604</v>
+        <v>69.565046687308794</v>
       </c>
       <c r="EO1">
-        <v>74.578201552465401</v>
+        <v>66.476633102627702</v>
       </c>
       <c r="EP1">
-        <v>72.868512955000199</v>
+        <v>63.840364162021601</v>
       </c>
       <c r="EQ1">
-        <v>70.294972202744603</v>
+        <v>60.950062387003598</v>
       </c>
       <c r="ER1">
-        <v>64.857662632117396</v>
+        <v>57.701552248516798</v>
       </c>
       <c r="ES1">
-        <v>61.664680451957601</v>
+        <v>55.259306777824897</v>
       </c>
       <c r="ET1">
-        <v>59.182654003750898</v>
+        <v>53.608244625284797</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>92.100657773227894</v>
+        <v>88.229345910278795</v>
       </c>
       <c r="B2">
-        <v>97.105231596451205</v>
+        <v>93.569806210735294</v>
       </c>
       <c r="C2">
-        <v>100.19944277146401</v>
+        <v>96.909907686386902</v>
       </c>
       <c r="D2">
-        <v>100.80988169245499</v>
+        <v>97.490258049988199</v>
       </c>
       <c r="E2">
-        <v>99.468986085355596</v>
+        <v>95.911328470690904</v>
       </c>
       <c r="F2">
-        <v>96.409311950372199</v>
+        <v>92.593071407811905</v>
       </c>
       <c r="G2">
-        <v>92.473559252564698</v>
+        <v>88.363756396570295</v>
       </c>
       <c r="H2">
-        <v>89.768113334926895</v>
+        <v>85.427583816934998</v>
       </c>
       <c r="I2">
-        <v>87.829467873772899</v>
+        <v>83.374063402017697</v>
       </c>
       <c r="J2">
-        <v>86.072012498510603</v>
+        <v>81.895023638020405</v>
       </c>
       <c r="K2">
-        <v>84.483441968208695</v>
+        <v>80.596463353984703</v>
       </c>
       <c r="L2">
-        <v>83.073271993399203</v>
+        <v>79.388363935198996</v>
       </c>
       <c r="M2">
-        <v>81.855809182883704</v>
+        <v>78.261708281557901</v>
       </c>
       <c r="N2">
-        <v>80.856711824815704</v>
+        <v>77.226722429987106</v>
       </c>
       <c r="O2">
-        <v>80.2096278342311</v>
+        <v>76.342013373953804</v>
       </c>
       <c r="P2">
-        <v>79.692434792097998</v>
+        <v>75.734945218746901</v>
       </c>
       <c r="Q2">
-        <v>79.166135071557207</v>
+        <v>75.371791412416897</v>
       </c>
       <c r="R2">
-        <v>78.817493508087395</v>
+        <v>75.325462845464301</v>
       </c>
       <c r="S2">
-        <v>78.823090833779901</v>
+        <v>75.671527893008005</v>
       </c>
       <c r="T2">
-        <v>79.497820629151406</v>
+        <v>76.490887260932197</v>
       </c>
       <c r="U2">
-        <v>80.203975351852307</v>
+        <v>77.449150820480398</v>
       </c>
       <c r="V2">
-        <v>79.870006516925102</v>
+        <v>77.329230989933194</v>
       </c>
       <c r="W2">
-        <v>78.482749865442599</v>
+        <v>76.130510234769005</v>
       </c>
       <c r="X2">
-        <v>77.0955377427277</v>
+        <v>74.486011911948097</v>
       </c>
       <c r="Y2">
-        <v>75.182918521852599</v>
+        <v>72.659874120679802</v>
       </c>
       <c r="Z2">
-        <v>73.6667298919091</v>
+        <v>71.036639524400101</v>
       </c>
       <c r="AA2">
-        <v>73.568680488074605</v>
+        <v>70.790622122785393</v>
       </c>
       <c r="AB2">
-        <v>74.725745213630404</v>
+        <v>71.856518348375204</v>
       </c>
       <c r="AC2">
-        <v>75.935436812532501</v>
+        <v>73.364906149257394</v>
       </c>
       <c r="AD2">
-        <v>77.363347221728901</v>
+        <v>74.785986718507402</v>
       </c>
       <c r="AE2">
-        <v>78.727024953708494</v>
+        <v>76.140731943221397</v>
       </c>
       <c r="AF2">
-        <v>80.022868177921097</v>
+        <v>77.345100826262097</v>
       </c>
       <c r="AG2">
-        <v>81.241129107836898</v>
+        <v>78.4901030919237</v>
       </c>
       <c r="AH2">
-        <v>82.453713903317393</v>
+        <v>79.6698821875937</v>
       </c>
       <c r="AI2">
-        <v>83.695917185365502</v>
+        <v>80.974974609007205</v>
       </c>
       <c r="AJ2">
-        <v>85.200305554358195</v>
+        <v>82.528476917559601</v>
       </c>
       <c r="AK2">
-        <v>87.090726705459502</v>
+        <v>84.467385921504402</v>
       </c>
       <c r="AL2">
-        <v>89.301507129651498</v>
+        <v>86.690137532292994</v>
       </c>
       <c r="AM2">
-        <v>91.759843624621297</v>
+        <v>89.237685490819302</v>
       </c>
       <c r="AN2">
-        <v>94.524411863959003</v>
+        <v>92.126049938562204</v>
       </c>
       <c r="AO2">
-        <v>97.461946886588294</v>
+        <v>95.194555897146998</v>
       </c>
       <c r="AP2">
-        <v>100.083280590935</v>
+        <v>97.918769272460906</v>
       </c>
       <c r="AQ2">
-        <v>101.916469578155</v>
+        <v>99.806980922382806</v>
       </c>
       <c r="AR2">
-        <v>102.912950045052</v>
+        <v>100.830485119957</v>
       </c>
       <c r="AS2">
-        <v>103.217144560658</v>
+        <v>101.129163898104</v>
       </c>
       <c r="AT2">
-        <v>102.676229752618</v>
+        <v>100.567377658848</v>
       </c>
       <c r="AU2">
-        <v>99.409201365397195</v>
+        <v>97.125624422315795</v>
       </c>
       <c r="AV2">
-        <v>93.624363974648105</v>
+        <v>91.773625363575704</v>
       </c>
       <c r="AW2">
-        <v>88.9897584878034</v>
+        <v>86.995209269937007</v>
       </c>
       <c r="AX2">
-        <v>85.763286763771902</v>
+        <v>83.419324120903795</v>
       </c>
       <c r="AY2">
-        <v>83.886549725084393</v>
+        <v>81.177798527556405</v>
       </c>
       <c r="AZ2">
-        <v>85.479531529622406</v>
+        <v>82.598552068652296</v>
       </c>
       <c r="BA2">
-        <v>90.183610585193406</v>
+        <v>86.572263900226801</v>
       </c>
       <c r="BB2">
-        <v>93.896488382447501</v>
+        <v>90.074606976718997</v>
       </c>
       <c r="BC2">
-        <v>96.021128296121702</v>
+        <v>92.142862074814403</v>
       </c>
       <c r="BD2">
-        <v>96.906345176756702</v>
+        <v>93.005182006897996</v>
       </c>
       <c r="BE2">
-        <v>96.603967114224304</v>
+        <v>92.737639312513096</v>
       </c>
       <c r="BF2">
-        <v>93.879875380135701</v>
+        <v>89.815788319609396</v>
       </c>
       <c r="BG2">
-        <v>91.265337544715905</v>
+        <v>86.913314631099894</v>
       </c>
       <c r="BH2">
-        <v>89.190682553368902</v>
+        <v>84.700764950396803</v>
       </c>
       <c r="BI2">
-        <v>87.374530990259402</v>
+        <v>82.653187225153602</v>
       </c>
       <c r="BJ2">
-        <v>85.893144885016596</v>
+        <v>80.837438143999407</v>
       </c>
       <c r="BK2">
-        <v>86.446704477426806</v>
+        <v>81.239465985748893</v>
       </c>
       <c r="BL2">
-        <v>86.769938612040093</v>
+        <v>81.567503036622796</v>
       </c>
       <c r="BM2">
-        <v>86.611913871113302</v>
+        <v>81.274630049259599</v>
       </c>
       <c r="BN2">
-        <v>86.161555557979895</v>
+        <v>80.827438088459303</v>
       </c>
       <c r="BO2">
-        <v>85.584803939244097</v>
+        <v>80.224748843670795</v>
       </c>
       <c r="BP2">
-        <v>85.070665568603403</v>
+        <v>79.650171245979294</v>
       </c>
       <c r="BQ2">
-        <v>84.877664748648101</v>
+        <v>79.365708672979295</v>
       </c>
       <c r="BR2">
-        <v>84.927522235870498</v>
+        <v>79.399915804403307</v>
       </c>
       <c r="BS2">
-        <v>85.273944293311104</v>
+        <v>79.639876140971495</v>
       </c>
       <c r="BT2">
-        <v>85.7877890536884</v>
+        <v>80.172726609203195</v>
       </c>
       <c r="BU2">
-        <v>86.546443762394503</v>
+        <v>81.035171553371001</v>
       </c>
       <c r="BV2">
-        <v>87.541697849286194</v>
+        <v>82.139178703053503</v>
       </c>
       <c r="BW2">
-        <v>88.833478040870901</v>
+        <v>83.540999282149301</v>
       </c>
       <c r="BX2">
-        <v>90.336028955177994</v>
+        <v>85.229064181341201</v>
       </c>
       <c r="BY2">
-        <v>92.020601717348697</v>
+        <v>87.091239724711599</v>
       </c>
       <c r="BZ2">
-        <v>93.464236502013406</v>
+        <v>88.692556494791802</v>
       </c>
       <c r="CA2">
-        <v>94.298700523240797</v>
+        <v>89.685946755150795</v>
       </c>
       <c r="CB2">
-        <v>94.355033849684105</v>
+        <v>89.8435720551971</v>
       </c>
       <c r="CC2">
-        <v>93.331774654041098</v>
+        <v>88.918387772249702</v>
       </c>
       <c r="CD2">
-        <v>90.8745956742586</v>
+        <v>86.701202726959593</v>
       </c>
       <c r="CE2">
-        <v>87.808672729509297</v>
+        <v>83.943389773252093</v>
       </c>
       <c r="CF2">
-        <v>85.987612153492705</v>
+        <v>82.213032785324799</v>
       </c>
       <c r="CG2">
-        <v>84.355955525266594</v>
+        <v>80.617311559141697</v>
       </c>
       <c r="CH2">
-        <v>82.415964886452997</v>
+        <v>78.512800331190107</v>
       </c>
       <c r="CI2">
-        <v>80.271144407632093</v>
+        <v>75.708025454934599</v>
       </c>
       <c r="CJ2">
-        <v>79.362287517500306</v>
+        <v>74.273938052194893</v>
       </c>
       <c r="CK2">
-        <v>78.682155019962806</v>
+        <v>73.500424814524706</v>
       </c>
       <c r="CL2">
-        <v>79.187808497308097</v>
+        <v>74.055390027785194</v>
       </c>
       <c r="CM2">
-        <v>81.661449274018096</v>
+        <v>76.760365636791306</v>
       </c>
       <c r="CN2">
-        <v>86.524318799604899</v>
+        <v>82.131650928500804</v>
       </c>
       <c r="CO2">
-        <v>90.819306562396093</v>
+        <v>86.696566024500996</v>
       </c>
       <c r="CP2">
-        <v>93.194537575952097</v>
+        <v>89.081014048127003</v>
       </c>
       <c r="CQ2">
-        <v>93.974766077296294</v>
+        <v>89.737534117802696</v>
       </c>
       <c r="CR2">
-        <v>93.342731680693404</v>
+        <v>88.882322862195394</v>
       </c>
       <c r="CS2">
-        <v>91.351973226604201</v>
+        <v>86.596412641278206</v>
       </c>
       <c r="CT2">
-        <v>89.106099959337598</v>
+        <v>84.137235485302199</v>
       </c>
       <c r="CU2">
-        <v>87.442035534728205</v>
+        <v>82.299963596861403</v>
       </c>
       <c r="CV2">
-        <v>85.676099983361794</v>
+        <v>80.281994334317801</v>
       </c>
       <c r="CW2">
-        <v>85.167469294088207</v>
+        <v>79.955130665932302</v>
+      </c>
+      <c r="CX2">
+        <v>81.0926632463988</v>
+      </c>
+      <c r="CY2">
+        <v>82.424934143342597</v>
+      </c>
+      <c r="CZ2">
+        <v>84.049755366995498</v>
+      </c>
+      <c r="DA2">
+        <v>86.7535376023189</v>
+      </c>
+      <c r="DB2">
+        <v>88.375539584007399</v>
+      </c>
+      <c r="DC2">
+        <v>88.666578538422897</v>
+      </c>
+      <c r="DD2">
+        <v>88.406174790951795</v>
+      </c>
+      <c r="DE2">
+        <v>87.539601228935396</v>
+      </c>
+      <c r="DF2">
+        <v>86.118030253420699</v>
+      </c>
+      <c r="DG2">
+        <v>84.486020956242299</v>
+      </c>
+      <c r="DH2">
+        <v>83.170190889947804</v>
+      </c>
+      <c r="DI2">
+        <v>82.715764852296701</v>
+      </c>
+      <c r="DJ2">
+        <v>83.459812871726996</v>
+      </c>
+      <c r="DK2">
+        <v>85.502451181234804</v>
+      </c>
+      <c r="DL2">
+        <v>88.4606463986552</v>
+      </c>
+      <c r="DM2">
+        <v>91.579349101459997</v>
+      </c>
+      <c r="DN2">
+        <v>94.354619944950898</v>
+      </c>
+      <c r="DO2">
+        <v>96.466215422689203</v>
+      </c>
+      <c r="DP2">
+        <v>96.483294906248503</v>
+      </c>
+      <c r="DQ2">
+        <v>92.963342287330093</v>
+      </c>
+      <c r="DR2">
+        <v>89.363623396278896</v>
+      </c>
+      <c r="DS2">
+        <v>87.616149480316906</v>
+      </c>
+      <c r="DT2">
+        <v>86.580935045027303</v>
+      </c>
+      <c r="DU2">
+        <v>86.833876663742402</v>
+      </c>
+      <c r="DV2">
+        <v>89.247445341187799</v>
+      </c>
+      <c r="DW2">
+        <v>91.510447166352705</v>
+      </c>
+      <c r="DX2">
+        <v>91.917587465578904</v>
+      </c>
+      <c r="DY2">
+        <v>91.097942966230505</v>
+      </c>
+      <c r="DZ2">
+        <v>90.564903785792296</v>
+      </c>
+      <c r="EA2">
+        <v>91.678601414106495</v>
+      </c>
+      <c r="EB2">
+        <v>92.965719137988202</v>
+      </c>
+      <c r="EC2">
+        <v>93.705753688172706</v>
+      </c>
+      <c r="ED2">
+        <v>94.714323207914305</v>
+      </c>
+      <c r="EE2">
+        <v>95.509691412772796</v>
+      </c>
+      <c r="EF2">
+        <v>95.241137177949199</v>
+      </c>
+      <c r="EG2">
+        <v>94.822702622997099</v>
+      </c>
+      <c r="EH2">
+        <v>95.1180149685635</v>
+      </c>
+      <c r="EI2">
+        <v>95.776384096369796</v>
+      </c>
+      <c r="EJ2">
+        <v>95.420158705670403</v>
+      </c>
+      <c r="EK2">
+        <v>94.365347317876598</v>
+      </c>
+      <c r="EL2">
+        <v>93.580589239316296</v>
+      </c>
+      <c r="EM2">
+        <v>92.721814688428395</v>
+      </c>
+      <c r="EN2">
+        <v>91.462526841768096</v>
+      </c>
+      <c r="EO2">
+        <v>90.134397656810606</v>
+      </c>
+      <c r="EP2">
+        <v>88.955026096482101</v>
+      </c>
+      <c r="EQ2">
+        <v>86.940905075216094</v>
+      </c>
+      <c r="ER2">
+        <v>83.817384611414198</v>
+      </c>
+      <c r="ES2">
+        <v>79.854990366855503</v>
+      </c>
+      <c r="ET2">
+        <v>76.673949738937694</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>91.771168845028299</v>
+        <v>91.893329771840499</v>
       </c>
       <c r="B3">
-        <v>96.929920212116699</v>
+        <v>95.808939567907402</v>
       </c>
       <c r="C3">
-        <v>100.155472105884</v>
+        <v>97.759478127840296</v>
       </c>
       <c r="D3">
-        <v>100.90492657787701</v>
+        <v>97.595819754257604</v>
       </c>
       <c r="E3">
-        <v>99.630409658702902</v>
+        <v>95.653266104594394</v>
       </c>
       <c r="F3">
-        <v>96.6094843768131</v>
+        <v>92.084455601342398</v>
       </c>
       <c r="G3">
-        <v>92.652877982022801</v>
+        <v>87.681429053428701</v>
       </c>
       <c r="H3">
-        <v>89.901044958877904</v>
+        <v>84.157706841476895</v>
       </c>
       <c r="I3">
-        <v>87.791781947366999</v>
+        <v>81.742103967565797</v>
       </c>
       <c r="J3">
-        <v>85.976167315158705</v>
+        <v>79.506093862657295</v>
       </c>
       <c r="K3">
-        <v>84.392189458486399</v>
+        <v>77.578293174265994</v>
       </c>
       <c r="L3">
-        <v>83.113747531521895</v>
+        <v>75.675859717898106</v>
       </c>
       <c r="M3">
-        <v>82.092400527138494</v>
+        <v>73.986102460548494</v>
       </c>
       <c r="N3">
-        <v>81.290002902390896</v>
+        <v>71.385732912678407</v>
       </c>
       <c r="O3">
-        <v>80.482135085123801</v>
+        <v>68.889235904856903</v>
       </c>
       <c r="P3">
-        <v>79.664182230220803</v>
+        <v>64.262142429822703</v>
       </c>
       <c r="Q3">
-        <v>78.798627802129204</v>
+        <v>61.003282882657899</v>
       </c>
       <c r="R3">
-        <v>78.216881974857102</v>
+        <v>60.142096343504498</v>
       </c>
       <c r="S3">
-        <v>78.176754461695197</v>
+        <v>61.615764017003798</v>
       </c>
       <c r="T3">
-        <v>78.927244456442807</v>
+        <v>64.504541736316099</v>
       </c>
       <c r="U3">
-        <v>79.743545388636704</v>
+        <v>70.451876430159501</v>
       </c>
       <c r="V3">
-        <v>79.470382558359603</v>
+        <v>74.539337280788999</v>
       </c>
       <c r="W3">
-        <v>78.716943982016403</v>
+        <v>75.787770531179405</v>
       </c>
       <c r="X3">
-        <v>77.554808149478205</v>
+        <v>74.915638715006097</v>
       </c>
       <c r="Y3">
-        <v>75.644804889486196</v>
+        <v>73.272333349695501</v>
       </c>
       <c r="Z3">
-        <v>73.945122441657205</v>
+        <v>71.007493346546099</v>
       </c>
       <c r="AA3">
-        <v>73.776490072581794</v>
+        <v>69.961262538344499</v>
       </c>
       <c r="AB3">
-        <v>74.336255863704295</v>
+        <v>70.1359488228278</v>
       </c>
       <c r="AC3">
-        <v>75.426854471449701</v>
+        <v>71.192219095809605</v>
       </c>
       <c r="AD3">
-        <v>77.096074053553394</v>
+        <v>72.393779843769295</v>
       </c>
       <c r="AE3">
-        <v>78.780536617151995</v>
+        <v>73.702248169263598</v>
       </c>
       <c r="AF3">
-        <v>80.250496264443996</v>
+        <v>75.034076460997298</v>
       </c>
       <c r="AG3">
-        <v>81.435609206687602</v>
+        <v>76.4196035957861</v>
       </c>
       <c r="AH3">
-        <v>82.382001719629201</v>
+        <v>78.006642206991799</v>
       </c>
       <c r="AI3">
-        <v>83.370432421184205</v>
+        <v>79.773610225371101</v>
       </c>
       <c r="AJ3">
-        <v>84.816409795217396</v>
+        <v>81.803615722749001</v>
       </c>
       <c r="AK3">
-        <v>86.755680080712906</v>
+        <v>83.926144731849405</v>
       </c>
       <c r="AL3">
-        <v>89.056649284012195</v>
+        <v>86.131818672390594</v>
       </c>
       <c r="AM3">
-        <v>91.624454871517997</v>
+        <v>88.519584549860099</v>
       </c>
       <c r="AN3">
-        <v>94.448460812516501</v>
+        <v>91.130329260791896</v>
       </c>
       <c r="AO3">
-        <v>97.426403013121003</v>
+        <v>93.952313301096595</v>
       </c>
       <c r="AP3">
-        <v>100.074004556093</v>
+        <v>96.5391388323157</v>
       </c>
       <c r="AQ3">
-        <v>101.89118952632801</v>
+        <v>98.372844175073496</v>
       </c>
       <c r="AR3">
-        <v>102.877358647317</v>
+        <v>99.437339872380306</v>
       </c>
       <c r="AS3">
-        <v>103.18282849881901</v>
+        <v>99.939614595174504</v>
       </c>
       <c r="AT3">
-        <v>102.620030632921</v>
+        <v>100.002068362344</v>
       </c>
       <c r="AU3">
-        <v>99.348783645927</v>
+        <v>98.390603882469804</v>
       </c>
       <c r="AV3">
-        <v>93.547375168664402</v>
+        <v>96.268202417520598</v>
       </c>
       <c r="AW3">
-        <v>89.019094085391501</v>
+        <v>94.092070821807198</v>
       </c>
       <c r="AX3">
-        <v>85.873780743537296</v>
+        <v>91.795787580164102</v>
       </c>
       <c r="AY3">
-        <v>84.080721990698706</v>
+        <v>89.4751203212344</v>
       </c>
       <c r="AZ3">
-        <v>85.651841396206507</v>
+        <v>88.8594244397853</v>
       </c>
       <c r="BA3">
-        <v>90.390092473693798</v>
+        <v>89.0678681615221</v>
       </c>
       <c r="BB3">
-        <v>94.026062593336505</v>
+        <v>89.350209172586503</v>
       </c>
       <c r="BC3">
-        <v>96.098146185227506</v>
+        <v>89.460852492445397</v>
       </c>
       <c r="BD3">
-        <v>96.9282215046874</v>
+        <v>89.573555877434202</v>
       </c>
       <c r="BE3">
-        <v>96.613688322131907</v>
+        <v>89.986383362860494</v>
       </c>
       <c r="BF3">
-        <v>93.809437243633397</v>
+        <v>89.585200464998493</v>
       </c>
       <c r="BG3">
-        <v>91.132620848337794</v>
+        <v>88.662565377486501</v>
       </c>
       <c r="BH3">
-        <v>89.009563286929904</v>
+        <v>87.490716096620403</v>
       </c>
       <c r="BI3">
-        <v>87.148693874029405</v>
+        <v>85.760234019493595</v>
       </c>
       <c r="BJ3">
-        <v>85.680838226142598</v>
+        <v>83.161699295292095</v>
       </c>
       <c r="BK3">
-        <v>86.347695065601698</v>
+        <v>81.364253578666705</v>
       </c>
       <c r="BL3">
-        <v>86.749745112464694</v>
+        <v>80.5020943359076</v>
       </c>
       <c r="BM3">
-        <v>86.590473847029003</v>
+        <v>80.154216916042003</v>
       </c>
       <c r="BN3">
-        <v>86.132475955603397</v>
+        <v>80.182104868973397</v>
       </c>
       <c r="BO3">
-        <v>85.519789281219005</v>
+        <v>80.571225707085205</v>
       </c>
       <c r="BP3">
-        <v>84.971392996449197</v>
+        <v>81.013012738440594</v>
       </c>
       <c r="BQ3">
-        <v>84.767289781600994</v>
+        <v>81.270250826827393</v>
       </c>
       <c r="BR3">
-        <v>84.928040192938596</v>
+        <v>81.516236503645104</v>
       </c>
       <c r="BS3">
-        <v>85.310201380803605</v>
+        <v>81.775714946258503</v>
       </c>
       <c r="BT3">
-        <v>85.860737100393294</v>
+        <v>82.096925834020993</v>
       </c>
       <c r="BU3">
-        <v>86.600408750971297</v>
+        <v>82.509956075648205</v>
       </c>
       <c r="BV3">
-        <v>87.574633525771105</v>
+        <v>83.145068899267898</v>
       </c>
       <c r="BW3">
-        <v>88.777452503884007</v>
+        <v>84.022993475203606</v>
       </c>
       <c r="BX3">
-        <v>90.285417214096995</v>
+        <v>85.203358448569702</v>
       </c>
       <c r="BY3">
-        <v>91.959972595766303</v>
+        <v>86.536538610875596</v>
       </c>
       <c r="BZ3">
-        <v>93.418886265860493</v>
+        <v>87.680993249893305</v>
       </c>
       <c r="CA3">
-        <v>94.242498201816105</v>
+        <v>88.361088454794697</v>
       </c>
       <c r="CB3">
-        <v>94.280737023904393</v>
+        <v>88.565154402565597</v>
       </c>
       <c r="CC3">
-        <v>93.255885448295402</v>
+        <v>88.210425448016906</v>
       </c>
       <c r="CD3">
-        <v>90.786450130644994</v>
+        <v>87.299982135671897</v>
       </c>
       <c r="CE3">
-        <v>87.662806594117498</v>
+        <v>86.211118896171001</v>
       </c>
       <c r="CF3">
-        <v>85.923327612942998</v>
+        <v>84.833076957792997</v>
       </c>
       <c r="CG3">
-        <v>84.225572679405602</v>
+        <v>81.987211195867999</v>
       </c>
       <c r="CH3">
-        <v>82.195117063419502</v>
+        <v>77.486504643564203</v>
       </c>
       <c r="CI3">
-        <v>80.156070408038602</v>
+        <v>74.294401307058607</v>
       </c>
       <c r="CJ3">
-        <v>79.331971295149501</v>
+        <v>72.216540215585297</v>
       </c>
       <c r="CK3">
-        <v>78.679247587848195</v>
+        <v>71.588270759539796</v>
       </c>
       <c r="CL3">
-        <v>79.339642429378102</v>
+        <v>73.552723842530796</v>
       </c>
       <c r="CM3">
-        <v>81.891767869507206</v>
+        <v>78.337140359022996</v>
       </c>
       <c r="CN3">
-        <v>86.665766305150001</v>
+        <v>83.166837693199398</v>
       </c>
       <c r="CO3">
-        <v>90.932997790880293</v>
+        <v>87.139455071087099</v>
       </c>
       <c r="CP3">
-        <v>93.220470469703301</v>
+        <v>89.469008067298901</v>
       </c>
       <c r="CQ3">
-        <v>93.937488316891404</v>
+        <v>90.244935139430098</v>
       </c>
       <c r="CR3">
-        <v>93.278533864698701</v>
+        <v>89.597933302566204</v>
       </c>
       <c r="CS3">
-        <v>91.276918648351895</v>
+        <v>87.591908231204101</v>
       </c>
       <c r="CT3">
-        <v>89.0790507550889</v>
+        <v>85.303396851625806</v>
       </c>
       <c r="CU3">
-        <v>87.483655945579002</v>
+        <v>83.600701329871896</v>
       </c>
       <c r="CV3">
-        <v>85.751029696202806</v>
+        <v>82.502775759536107</v>
       </c>
       <c r="CW3">
-        <v>85.385487789086199</v>
+        <v>80.749480802945001</v>
+      </c>
+      <c r="CX3">
+        <v>80.740650721439394</v>
+      </c>
+      <c r="CY3">
+        <v>81.386927184349304</v>
+      </c>
+      <c r="CZ3">
+        <v>82.516113544585906</v>
+      </c>
+      <c r="DA3">
+        <v>84.074792872768697</v>
+      </c>
+      <c r="DB3">
+        <v>87.137103834359195</v>
+      </c>
+      <c r="DC3">
+        <v>88.883300682858305</v>
+      </c>
+      <c r="DD3">
+        <v>90.105962818227297</v>
+      </c>
+      <c r="DE3">
+        <v>90.840303339080904</v>
+      </c>
+      <c r="DF3">
+        <v>91.049397445263196</v>
+      </c>
+      <c r="DG3">
+        <v>90.873047190219097</v>
+      </c>
+      <c r="DH3">
+        <v>90.6619676202954</v>
+      </c>
+      <c r="DI3">
+        <v>90.782120113301602</v>
+      </c>
+      <c r="DJ3">
+        <v>91.451533675643205</v>
+      </c>
+      <c r="DK3">
+        <v>92.776926628768294</v>
+      </c>
+      <c r="DL3">
+        <v>94.581827997978095</v>
+      </c>
+      <c r="DM3">
+        <v>96.285420977016102</v>
+      </c>
+      <c r="DN3">
+        <v>97.558438592883107</v>
+      </c>
+      <c r="DO3">
+        <v>98.190208000187994</v>
+      </c>
+      <c r="DP3">
+        <v>96.887665526293702</v>
+      </c>
+      <c r="DQ3">
+        <v>94.206759278423405</v>
+      </c>
+      <c r="DR3">
+        <v>92.161520548564596</v>
+      </c>
+      <c r="DS3">
+        <v>91.027126144515606</v>
+      </c>
+      <c r="DT3">
+        <v>90.390628962571895</v>
+      </c>
+      <c r="DU3">
+        <v>90.871397599985102</v>
+      </c>
+      <c r="DV3">
+        <v>91.355709395277003</v>
+      </c>
+      <c r="DW3">
+        <v>91.4036345665493</v>
+      </c>
+      <c r="DX3">
+        <v>90.587772712573098</v>
+      </c>
+      <c r="DY3">
+        <v>89.010616800041205</v>
+      </c>
+      <c r="DZ3">
+        <v>88.722616539335107</v>
+      </c>
+      <c r="EA3">
+        <v>90.355922014918704</v>
+      </c>
+      <c r="EB3">
+        <v>91.812726933382706</v>
+      </c>
+      <c r="EC3">
+        <v>92.741358187238603</v>
+      </c>
+      <c r="ED3">
+        <v>93.965396180403999</v>
+      </c>
+      <c r="EE3">
+        <v>94.429423679832396</v>
+      </c>
+      <c r="EF3">
+        <v>93.925699306876695</v>
+      </c>
+      <c r="EG3">
+        <v>93.471651123067602</v>
+      </c>
+      <c r="EH3">
+        <v>93.989501943535402</v>
+      </c>
+      <c r="EI3">
+        <v>95.022249022816894</v>
+      </c>
+      <c r="EJ3">
+        <v>95.169589496297107</v>
+      </c>
+      <c r="EK3">
+        <v>94.480719674975106</v>
+      </c>
+      <c r="EL3">
+        <v>93.980055127998497</v>
+      </c>
+      <c r="EM3">
+        <v>93.488603225999299</v>
+      </c>
+      <c r="EN3">
+        <v>92.714842498471597</v>
+      </c>
+      <c r="EO3">
+        <v>92.097846631734996</v>
+      </c>
+      <c r="EP3">
+        <v>91.962983825043096</v>
+      </c>
+      <c r="EQ3">
+        <v>91.412095767176595</v>
+      </c>
+      <c r="ER3">
+        <v>90.218957450336802</v>
+      </c>
+      <c r="ES3">
+        <v>88.660285289066195</v>
+      </c>
+      <c r="ET3">
+        <v>87.123020448461503</v>
       </c>
     </row>
-    <row r="4" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>92.131968678395495</v>
+        <v>87.834879317740302</v>
       </c>
       <c r="B4">
-        <v>97.146654696760194</v>
+        <v>92.741196977950594</v>
       </c>
       <c r="C4">
-        <v>100.235023891395</v>
+        <v>95.597745874114295</v>
       </c>
       <c r="D4">
-        <v>100.90869501541999</v>
+        <v>96.199983753913202</v>
       </c>
       <c r="E4">
-        <v>99.550084011944506</v>
+        <v>94.916512516252197</v>
       </c>
       <c r="F4">
-        <v>96.449758641597597</v>
+        <v>91.790728900299101</v>
       </c>
       <c r="G4">
-        <v>92.500076034642206</v>
+        <v>87.742117458493496</v>
       </c>
       <c r="H4">
-        <v>89.774406719753699</v>
+        <v>85.165476847782998</v>
       </c>
       <c r="I4">
-        <v>87.812272985648804</v>
+        <v>83.281882064401799</v>
       </c>
       <c r="J4">
-        <v>86.143558430795807</v>
+        <v>81.882131397493495</v>
       </c>
       <c r="K4">
-        <v>84.596178033630096</v>
+        <v>80.742139032507396</v>
       </c>
       <c r="L4">
-        <v>83.142929549922599</v>
+        <v>79.592512337665895</v>
       </c>
       <c r="M4">
-        <v>81.849409329598103</v>
+        <v>78.522750138020896</v>
       </c>
       <c r="N4">
-        <v>80.711427292792806</v>
+        <v>77.360707324288995</v>
       </c>
       <c r="O4">
-        <v>79.904885635730196</v>
+        <v>76.315893187114199</v>
       </c>
       <c r="P4">
-        <v>79.299373337793796</v>
+        <v>75.413770325288496</v>
       </c>
       <c r="Q4">
-        <v>78.831188878674297</v>
+        <v>74.867299518720003</v>
       </c>
       <c r="R4">
-        <v>78.536605529967204</v>
+        <v>74.663700607270499</v>
       </c>
       <c r="S4">
-        <v>78.616007055195794</v>
+        <v>75.065709215692706</v>
       </c>
       <c r="T4">
-        <v>79.243370460687899</v>
+        <v>76.043650834836797</v>
       </c>
       <c r="U4">
-        <v>79.970733197478594</v>
+        <v>77.075782146989994</v>
       </c>
       <c r="V4">
-        <v>79.600430115971804</v>
+        <v>76.641735460964796</v>
       </c>
       <c r="W4">
-        <v>78.236597905531298</v>
+        <v>75.555441448568303</v>
       </c>
       <c r="X4">
-        <v>76.735612534401398</v>
+        <v>74.049847300841904</v>
       </c>
       <c r="Y4">
-        <v>75.012370669388503</v>
+        <v>72.317796688427904</v>
       </c>
       <c r="Z4">
-        <v>73.494896733249305</v>
+        <v>70.7970275882453</v>
       </c>
       <c r="AA4">
-        <v>73.452733877850903</v>
+        <v>71.007226080341496</v>
       </c>
       <c r="AB4">
-        <v>74.644939662341301</v>
+        <v>71.931868556053999</v>
       </c>
       <c r="AC4">
-        <v>76.050090605312207</v>
+        <v>73.218157242511197</v>
       </c>
       <c r="AD4">
-        <v>77.434474200125393</v>
+        <v>74.464625429797707</v>
       </c>
       <c r="AE4">
-        <v>78.784993334059095</v>
+        <v>75.693076317274404</v>
       </c>
       <c r="AF4">
-        <v>80.001952676823393</v>
+        <v>76.839312774002195</v>
       </c>
       <c r="AG4">
-        <v>81.153246813507806</v>
+        <v>77.957762507985507</v>
       </c>
       <c r="AH4">
-        <v>82.2951732497813</v>
+        <v>79.165946804272593</v>
       </c>
       <c r="AI4">
-        <v>83.486302584276302</v>
+        <v>80.520187290906605</v>
       </c>
       <c r="AJ4">
-        <v>84.985497561950794</v>
+        <v>82.189743541920805</v>
       </c>
       <c r="AK4">
-        <v>86.873807679753099</v>
+        <v>84.188134613099294</v>
       </c>
       <c r="AL4">
-        <v>89.1051275578548</v>
+        <v>86.464811701298004</v>
       </c>
       <c r="AM4">
-        <v>91.613531878859206</v>
+        <v>88.970074882235707</v>
       </c>
       <c r="AN4">
-        <v>94.415639407617604</v>
+        <v>91.790436775829306</v>
       </c>
       <c r="AO4">
-        <v>97.405016736312703</v>
+        <v>94.776501698717595</v>
       </c>
       <c r="AP4">
-        <v>100.096634608115</v>
+        <v>97.412654767650295</v>
       </c>
       <c r="AQ4">
-        <v>101.921032515364</v>
+        <v>99.274688864999504</v>
       </c>
       <c r="AR4">
-        <v>102.88655492168</v>
+        <v>100.27227612063101</v>
       </c>
       <c r="AS4">
-        <v>103.195958630661</v>
+        <v>100.55866762451799</v>
       </c>
       <c r="AT4">
-        <v>102.641160755569</v>
+        <v>99.962840131639595</v>
       </c>
       <c r="AU4">
-        <v>99.337607404843695</v>
+        <v>96.403883668376807</v>
       </c>
       <c r="AV4">
-        <v>93.432916175261894</v>
+        <v>89.415895198654894</v>
       </c>
       <c r="AW4">
-        <v>88.902119561985501</v>
+        <v>84.573545590024807</v>
       </c>
       <c r="AX4">
-        <v>85.742027987984599</v>
+        <v>81.171373017789904</v>
       </c>
       <c r="AY4">
-        <v>83.923620440071701</v>
+        <v>79.103408303910498</v>
       </c>
       <c r="AZ4">
-        <v>85.542121945959096</v>
+        <v>80.682415146247607</v>
       </c>
       <c r="BA4">
-        <v>90.413924411432504</v>
+        <v>86.260120330677495</v>
       </c>
       <c r="BB4">
-        <v>94.055146210585306</v>
+        <v>89.855444640079298</v>
       </c>
       <c r="BC4">
-        <v>96.101292423511893</v>
+        <v>91.825604717921706</v>
       </c>
       <c r="BD4">
-        <v>96.953782228757504</v>
+        <v>92.630184599064705</v>
       </c>
       <c r="BE4">
-        <v>96.632511977782002</v>
+        <v>92.334712266534197</v>
       </c>
       <c r="BF4">
-        <v>93.836268619648294</v>
+        <v>89.542815914831706</v>
       </c>
       <c r="BG4">
-        <v>91.206295627768398</v>
+        <v>87.008088673558206</v>
       </c>
       <c r="BH4">
-        <v>89.123993872549406</v>
+        <v>84.922158581370795</v>
       </c>
       <c r="BI4">
-        <v>87.254987517716899</v>
+        <v>82.919229508353993</v>
       </c>
       <c r="BJ4">
-        <v>85.777369086937298</v>
+        <v>81.170733939892699</v>
       </c>
       <c r="BK4">
-        <v>86.346919361906998</v>
+        <v>81.562785618530697</v>
       </c>
       <c r="BL4">
-        <v>86.667910981344406</v>
+        <v>81.587555501688399</v>
       </c>
       <c r="BM4">
-        <v>86.485505372522596</v>
+        <v>81.218654224964197</v>
       </c>
       <c r="BN4">
-        <v>86.109878495900503</v>
+        <v>80.791461526833402</v>
       </c>
       <c r="BO4">
-        <v>85.520442352271502</v>
+        <v>80.278895153483504</v>
       </c>
       <c r="BP4">
-        <v>85.033922939726097</v>
+        <v>79.835248038960998</v>
       </c>
       <c r="BQ4">
-        <v>84.812081459150207</v>
+        <v>79.691861616728104</v>
       </c>
       <c r="BR4">
-        <v>84.896417404361799</v>
+        <v>79.834164710675594</v>
       </c>
       <c r="BS4">
-        <v>85.1927492715119</v>
+        <v>80.128542258619802</v>
       </c>
       <c r="BT4">
-        <v>85.725012651588003</v>
+        <v>80.616233110210203</v>
       </c>
       <c r="BU4">
-        <v>86.486731550633607</v>
+        <v>81.316470348478802</v>
       </c>
       <c r="BV4">
-        <v>87.519727780426905</v>
+        <v>82.270144073503104</v>
       </c>
       <c r="BW4">
-        <v>88.808383288143006</v>
+        <v>83.464946148785899</v>
       </c>
       <c r="BX4">
-        <v>90.329640269987706</v>
+        <v>84.938852996185801</v>
       </c>
       <c r="BY4">
-        <v>92.018032646177303</v>
+        <v>86.608996647936394</v>
       </c>
       <c r="BZ4">
-        <v>93.456990086094706</v>
+        <v>88.038854551982197</v>
       </c>
       <c r="CA4">
-        <v>94.277403684851294</v>
+        <v>88.810083183324807</v>
       </c>
       <c r="CB4">
-        <v>94.290410988017896</v>
+        <v>88.8001147196331</v>
       </c>
       <c r="CC4">
-        <v>93.212541174800904</v>
+        <v>87.704906545302407</v>
       </c>
       <c r="CD4">
-        <v>90.734787500889396</v>
+        <v>85.193047189192498</v>
       </c>
       <c r="CE4">
-        <v>87.664979506886397</v>
+        <v>82.046476574755701</v>
       </c>
       <c r="CF4">
-        <v>85.824624128243101</v>
+        <v>80.327944552978806</v>
       </c>
       <c r="CG4">
-        <v>84.198999704080606</v>
+        <v>78.716349454849805</v>
       </c>
       <c r="CH4">
-        <v>82.281674599850206</v>
+        <v>76.758134462503094</v>
       </c>
       <c r="CI4">
-        <v>80.197856130629802</v>
+        <v>74.647121651097706</v>
       </c>
       <c r="CJ4">
-        <v>79.340222852880103</v>
+        <v>73.777604287323697</v>
       </c>
       <c r="CK4">
-        <v>78.747992579884993</v>
+        <v>73.009393620035496</v>
       </c>
       <c r="CL4">
-        <v>79.338319515883498</v>
+        <v>73.587568365952706</v>
       </c>
       <c r="CM4">
-        <v>81.857969019248699</v>
+        <v>76.111166841833196</v>
       </c>
       <c r="CN4">
-        <v>86.7095954862383</v>
+        <v>81.024028931929706</v>
       </c>
       <c r="CO4">
-        <v>90.9225171628825</v>
+        <v>85.330404059597697</v>
       </c>
       <c r="CP4">
-        <v>93.215040356359907</v>
+        <v>87.682697433433205</v>
       </c>
       <c r="CQ4">
-        <v>93.950692605121304</v>
+        <v>88.466229400738399</v>
       </c>
       <c r="CR4">
-        <v>93.297477558427701</v>
+        <v>87.8722825310888</v>
       </c>
       <c r="CS4">
-        <v>91.274465578847995</v>
+        <v>85.808002305495705</v>
       </c>
       <c r="CT4">
-        <v>89.0613243840602</v>
+        <v>83.589136753253698</v>
       </c>
       <c r="CU4">
-        <v>87.428488808427602</v>
+        <v>81.964522083865305</v>
       </c>
       <c r="CV4">
-        <v>85.589175168747104</v>
+        <v>80.228280981065595</v>
       </c>
       <c r="CW4">
-        <v>85.189295312542299</v>
+        <v>79.847505350354993</v>
+      </c>
+      <c r="CX4">
+        <v>80.863913318391994</v>
+      </c>
+      <c r="CY4">
+        <v>82.119523888648601</v>
+      </c>
+      <c r="CZ4">
+        <v>83.688985913230198</v>
+      </c>
+      <c r="DA4">
+        <v>86.080469598500102</v>
+      </c>
+      <c r="DB4">
+        <v>87.663164160800306</v>
+      </c>
+      <c r="DC4">
+        <v>87.913851982218205</v>
+      </c>
+      <c r="DD4">
+        <v>87.663604483690307</v>
+      </c>
+      <c r="DE4">
+        <v>86.820196838694201</v>
+      </c>
+      <c r="DF4">
+        <v>85.453884240700603</v>
+      </c>
+      <c r="DG4">
+        <v>83.84733935106</v>
+      </c>
+      <c r="DH4">
+        <v>82.557640233047707</v>
+      </c>
+      <c r="DI4">
+        <v>82.129985514133494</v>
+      </c>
+      <c r="DJ4">
+        <v>82.837725254502402</v>
+      </c>
+      <c r="DK4">
+        <v>84.767934341374101</v>
+      </c>
+      <c r="DL4">
+        <v>87.647687882286405</v>
+      </c>
+      <c r="DM4">
+        <v>90.681056750022904</v>
+      </c>
+      <c r="DN4">
+        <v>93.315164935132898</v>
+      </c>
+      <c r="DO4">
+        <v>95.320218982143004</v>
+      </c>
+      <c r="DP4">
+        <v>95.118766871696295</v>
+      </c>
+      <c r="DQ4">
+        <v>91.089710242028204</v>
+      </c>
+      <c r="DR4">
+        <v>87.684141413912201</v>
+      </c>
+      <c r="DS4">
+        <v>86.088136501128005</v>
+      </c>
+      <c r="DT4">
+        <v>85.195421321220806</v>
+      </c>
+      <c r="DU4">
+        <v>85.783844296109606</v>
+      </c>
+      <c r="DV4">
+        <v>88.872489012667003</v>
+      </c>
+      <c r="DW4">
+        <v>91.212500480212199</v>
+      </c>
+      <c r="DX4">
+        <v>91.703613463212804</v>
+      </c>
+      <c r="DY4">
+        <v>91.111557079161997</v>
+      </c>
+      <c r="DZ4">
+        <v>90.711986818961904</v>
+      </c>
+      <c r="EA4">
+        <v>91.815493142902099</v>
+      </c>
+      <c r="EB4">
+        <v>92.941094802393906</v>
+      </c>
+      <c r="EC4">
+        <v>93.608836721392393</v>
+      </c>
+      <c r="ED4">
+        <v>94.508074089656901</v>
+      </c>
+      <c r="EE4">
+        <v>95.244127637315898</v>
+      </c>
+      <c r="EF4">
+        <v>95.022005965962293</v>
+      </c>
+      <c r="EG4">
+        <v>94.684597243848899</v>
+      </c>
+      <c r="EH4">
+        <v>94.968971933178807</v>
+      </c>
+      <c r="EI4">
+        <v>95.484839697431696</v>
+      </c>
+      <c r="EJ4">
+        <v>95.028714159112695</v>
+      </c>
+      <c r="EK4">
+        <v>94.091811329874602</v>
+      </c>
+      <c r="EL4">
+        <v>93.341854424312501</v>
+      </c>
+      <c r="EM4">
+        <v>92.468476914963802</v>
+      </c>
+      <c r="EN4">
+        <v>91.180732075303993</v>
+      </c>
+      <c r="EO4">
+        <v>89.827549609010603</v>
+      </c>
+      <c r="EP4">
+        <v>88.517634902842005</v>
+      </c>
+      <c r="EQ4">
+        <v>86.387589263554901</v>
+      </c>
+      <c r="ER4">
+        <v>83.136118684294303</v>
+      </c>
+      <c r="ES4">
+        <v>78.892285640383804</v>
+      </c>
+      <c r="ET4">
+        <v>75.351211209327303</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>90.409334296871293</v>
+        <v>89.904817766257096</v>
       </c>
       <c r="B5">
-        <v>94.306520926608201</v>
+        <v>93.803653659631493</v>
       </c>
       <c r="C5">
-        <v>96.822134939212404</v>
+        <v>96.249454723320497</v>
       </c>
       <c r="D5">
-        <v>97.5402514726253</v>
+        <v>96.866327448185402</v>
       </c>
       <c r="E5">
-        <v>96.297933056569605</v>
+        <v>95.5330658834107</v>
       </c>
       <c r="F5">
-        <v>93.532655028886595</v>
+        <v>92.701977891900199</v>
       </c>
       <c r="G5">
-        <v>89.769159376338095</v>
+        <v>88.902705035526495</v>
       </c>
       <c r="H5">
-        <v>86.949296890670794</v>
+        <v>86.150279974132502</v>
       </c>
       <c r="I5">
-        <v>84.896770576967</v>
+        <v>84.0499407535914</v>
       </c>
       <c r="J5">
-        <v>83.1961613909113</v>
+        <v>82.031812577640096</v>
       </c>
       <c r="K5">
-        <v>81.714558228031507</v>
+        <v>80.105439722539899</v>
       </c>
       <c r="L5">
-        <v>80.390032791188503</v>
+        <v>78.272299662789706</v>
       </c>
       <c r="M5">
-        <v>79.302996717706705</v>
+        <v>76.575812130685094</v>
       </c>
       <c r="N5">
-        <v>78.303287833963594</v>
+        <v>74.954749664991596</v>
       </c>
       <c r="O5">
-        <v>77.367966416201497</v>
+        <v>73.748006935024094</v>
       </c>
       <c r="P5">
-        <v>76.5889826787229</v>
+        <v>72.8194325766747</v>
       </c>
       <c r="Q5">
-        <v>75.880294262118099</v>
+        <v>72.063604562549898</v>
       </c>
       <c r="R5">
-        <v>75.033752256082806</v>
+        <v>71.382102886688202</v>
       </c>
       <c r="S5">
-        <v>74.340497807079302</v>
+        <v>71.093621412339502</v>
       </c>
       <c r="T5">
-        <v>74.093473312301299</v>
+        <v>71.289883337153697</v>
       </c>
       <c r="U5">
-        <v>73.939938403652604</v>
+        <v>71.272053871611405</v>
       </c>
       <c r="V5">
-        <v>72.497836198476307</v>
+        <v>69.184549704307599</v>
       </c>
       <c r="W5">
-        <v>70.177732601180494</v>
+        <v>66.316416355707503</v>
       </c>
       <c r="X5">
-        <v>67.555379820291705</v>
+        <v>63.920671263929599</v>
       </c>
       <c r="Y5">
-        <v>64.325723056209398</v>
+        <v>61.473651390400398</v>
       </c>
       <c r="Z5">
-        <v>61.560408561368902</v>
+        <v>59.692308963485502</v>
       </c>
       <c r="AA5">
-        <v>60.969404769534997</v>
+        <v>60.398429019827603</v>
       </c>
       <c r="AB5">
-        <v>62.133639307876102</v>
+        <v>62.425999389615903</v>
       </c>
       <c r="AC5">
-        <v>64.479375388283998</v>
+        <v>64.549667993783203</v>
       </c>
       <c r="AD5">
-        <v>67.733125344244797</v>
+        <v>66.7701011831535</v>
       </c>
       <c r="AE5">
-        <v>70.871096917173901</v>
+        <v>68.968992903032699</v>
       </c>
       <c r="AF5">
-        <v>73.555801703440906</v>
+        <v>71.264800449725399</v>
       </c>
       <c r="AG5">
-        <v>75.987442605315593</v>
+        <v>73.5374806535538</v>
       </c>
       <c r="AH5">
-        <v>77.856365819690595</v>
+        <v>75.478870170480704</v>
       </c>
       <c r="AI5">
-        <v>79.450901476020107</v>
+        <v>77.349285823795199</v>
       </c>
       <c r="AJ5">
-        <v>81.023146759216303</v>
+        <v>79.355379977517401</v>
       </c>
       <c r="AK5">
-        <v>82.708632416316803</v>
+        <v>81.433922004058999</v>
       </c>
       <c r="AL5">
-        <v>84.548905744644003</v>
+        <v>83.642688490721</v>
       </c>
       <c r="AM5">
-        <v>86.658588703728299</v>
+        <v>86.067623911373701</v>
       </c>
       <c r="AN5">
-        <v>89.161051402204393</v>
+        <v>88.808035006138098</v>
       </c>
       <c r="AO5">
-        <v>91.983637946078503</v>
+        <v>91.705877204008004</v>
       </c>
       <c r="AP5">
-        <v>94.520145652179394</v>
+        <v>94.2761837955494</v>
       </c>
       <c r="AQ5">
-        <v>96.195137051697202</v>
+        <v>95.952152686999497</v>
       </c>
       <c r="AR5">
-        <v>97.014109265154403</v>
+        <v>96.759671043879095</v>
       </c>
       <c r="AS5">
-        <v>97.174262491530101</v>
+        <v>96.925081412165</v>
       </c>
       <c r="AT5">
-        <v>96.354340664346907</v>
+        <v>96.075611814455598</v>
       </c>
       <c r="AU5">
-        <v>91.823010779595293</v>
+        <v>91.479595939331602</v>
       </c>
       <c r="AV5">
-        <v>83.118468530027499</v>
+        <v>83.403058149237296</v>
       </c>
       <c r="AW5">
-        <v>77.887655508159298</v>
+        <v>78.070704925038797</v>
       </c>
       <c r="AX5">
-        <v>74.187676440849003</v>
+        <v>74.123105412639504</v>
       </c>
       <c r="AY5">
-        <v>72.014470571881304</v>
+        <v>71.830729751998902</v>
       </c>
       <c r="AZ5">
-        <v>74.581869618239395</v>
+        <v>74.202220329764103</v>
       </c>
       <c r="BA5">
-        <v>82.224572726481199</v>
+        <v>80.952845730275996</v>
       </c>
       <c r="BB5">
-        <v>86.513823872092203</v>
+        <v>85.0752532067945</v>
       </c>
       <c r="BC5">
-        <v>88.9809428562086</v>
+        <v>87.546393326142194</v>
       </c>
       <c r="BD5">
-        <v>90.260707138850194</v>
+        <v>88.725638541849904</v>
       </c>
       <c r="BE5">
-        <v>90.094963996804594</v>
+        <v>88.564652421137097</v>
       </c>
       <c r="BF5">
-        <v>87.264272025516803</v>
+        <v>85.750331965652094</v>
       </c>
       <c r="BG5">
-        <v>84.492864044633606</v>
+        <v>82.9315962911908</v>
       </c>
       <c r="BH5">
-        <v>82.457833180770095</v>
+        <v>80.822793843247197</v>
       </c>
       <c r="BI5">
-        <v>80.627432530436494</v>
+        <v>78.560562474327995</v>
       </c>
       <c r="BJ5">
-        <v>79.3299535360796</v>
+        <v>76.729846668719404</v>
       </c>
       <c r="BK5">
-        <v>80.254430416001298</v>
+        <v>77.105397159388303</v>
       </c>
       <c r="BL5">
-        <v>81.147448550079503</v>
+        <v>77.520158941452806</v>
       </c>
       <c r="BM5">
-        <v>81.256159280594602</v>
+        <v>77.081401916901697</v>
       </c>
       <c r="BN5">
-        <v>80.754530198500206</v>
+        <v>76.507464788413003</v>
       </c>
       <c r="BO5">
-        <v>79.923215664359404</v>
+        <v>75.687146400867903</v>
       </c>
       <c r="BP5">
-        <v>79.009252151686596</v>
+        <v>74.787076020383694</v>
       </c>
       <c r="BQ5">
-        <v>78.298431912335602</v>
+        <v>74.038423619384005</v>
       </c>
       <c r="BR5">
-        <v>77.946130414819606</v>
+        <v>73.826893189893994</v>
       </c>
       <c r="BS5">
-        <v>78.113550194766304</v>
+        <v>73.992980463220107</v>
       </c>
       <c r="BT5">
-        <v>78.559507793114093</v>
+        <v>74.435788016660595</v>
       </c>
       <c r="BU5">
-        <v>79.184460820408901</v>
+        <v>75.074028836886896</v>
       </c>
       <c r="BV5">
-        <v>79.973644436810204</v>
+        <v>75.895777182439403</v>
       </c>
       <c r="BW5">
-        <v>80.980544521333698</v>
+        <v>76.889104977057599</v>
       </c>
       <c r="BX5">
-        <v>82.119815805291296</v>
+        <v>78.095001483366303</v>
       </c>
       <c r="BY5">
-        <v>83.441054290530403</v>
+        <v>79.485246836426896</v>
       </c>
       <c r="BZ5">
-        <v>84.772569866180206</v>
+        <v>80.9120896322503</v>
       </c>
       <c r="CA5">
-        <v>85.529967062384998</v>
+        <v>81.800432078188393</v>
       </c>
       <c r="CB5">
-        <v>85.014931998069798</v>
+        <v>81.348646211921903</v>
       </c>
       <c r="CC5">
-        <v>81.939277146062807</v>
+        <v>78.182055789355601</v>
       </c>
       <c r="CD5">
-        <v>79.026792852528999</v>
+        <v>75.413397423124906</v>
       </c>
       <c r="CE5">
-        <v>77.550496682106697</v>
+        <v>73.901549207811996</v>
       </c>
       <c r="CF5">
-        <v>76.994615827974201</v>
+        <v>73.281256331459403</v>
       </c>
       <c r="CG5">
-        <v>76.146761842097007</v>
+        <v>72.440198285907499</v>
       </c>
       <c r="CH5">
-        <v>76.033195413708199</v>
+        <v>72.520426341901299</v>
       </c>
       <c r="CI5">
-        <v>74.2814635689722</v>
+        <v>70.923286092379996</v>
       </c>
       <c r="CJ5">
-        <v>72.965588105492202</v>
+        <v>69.703787476119999</v>
       </c>
       <c r="CK5">
-        <v>72.071170489392998</v>
+        <v>68.975418979647003</v>
       </c>
       <c r="CL5">
-        <v>73.192261006086298</v>
+        <v>70.178858919435797</v>
       </c>
       <c r="CM5">
-        <v>76.630144654427497</v>
+        <v>73.568958671055597</v>
       </c>
       <c r="CN5">
-        <v>82.113386838250094</v>
+        <v>78.804395894990705</v>
       </c>
       <c r="CO5">
-        <v>84.904209874216093</v>
+        <v>81.567884845778707</v>
       </c>
       <c r="CP5">
-        <v>85.824033066876297</v>
+        <v>82.481032350074003</v>
       </c>
       <c r="CQ5">
-        <v>85.465640730393602</v>
+        <v>82.123619562478595</v>
       </c>
       <c r="CR5">
-        <v>84.014821840280007</v>
+        <v>80.729221150209597</v>
       </c>
       <c r="CS5">
-        <v>81.525794360963801</v>
+        <v>78.182403785627898</v>
       </c>
       <c r="CT5">
-        <v>79.614995703272299</v>
+        <v>76.184674214876793</v>
       </c>
       <c r="CU5">
-        <v>78.527335000533597</v>
+        <v>74.947486039093207</v>
       </c>
       <c r="CV5">
-        <v>76.780580299102596</v>
+        <v>72.8586525010857</v>
       </c>
       <c r="CW5">
-        <v>76.929755353541296</v>
+        <v>72.956938045418397</v>
+      </c>
+      <c r="CX5">
+        <v>73.687912943084299</v>
+      </c>
+      <c r="CY5">
+        <v>74.885405580211099</v>
+      </c>
+      <c r="CZ5">
+        <v>76.418694319517897</v>
+      </c>
+      <c r="DA5">
+        <v>79.473541505860396</v>
+      </c>
+      <c r="DB5">
+        <v>80.471314166896093</v>
+      </c>
+      <c r="DC5">
+        <v>80.693347684210593</v>
+      </c>
+      <c r="DD5">
+        <v>80.113622639283093</v>
+      </c>
+      <c r="DE5">
+        <v>78.968187955997195</v>
+      </c>
+      <c r="DF5">
+        <v>77.531029964660505</v>
+      </c>
+      <c r="DG5">
+        <v>76.342437733231193</v>
+      </c>
+      <c r="DH5">
+        <v>75.775340203282099</v>
+      </c>
+      <c r="DI5">
+        <v>76.099165935037107</v>
+      </c>
+      <c r="DJ5">
+        <v>77.468702347502003</v>
+      </c>
+      <c r="DK5">
+        <v>79.836564142849795</v>
+      </c>
+      <c r="DL5">
+        <v>82.681952496141193</v>
+      </c>
+      <c r="DM5">
+        <v>85.471317685440994</v>
+      </c>
+      <c r="DN5">
+        <v>87.965786190469601</v>
+      </c>
+      <c r="DO5">
+        <v>89.301054215029097</v>
+      </c>
+      <c r="DP5">
+        <v>88.445090911126698</v>
+      </c>
+      <c r="DQ5">
+        <v>85.660445309733603</v>
+      </c>
+      <c r="DR5">
+        <v>83.378692586124501</v>
+      </c>
+      <c r="DS5">
+        <v>81.852795292564394</v>
+      </c>
+      <c r="DT5">
+        <v>80.869933220513701</v>
+      </c>
+      <c r="DU5">
+        <v>81.056461482836397</v>
+      </c>
+      <c r="DV5">
+        <v>82.559337879758402</v>
+      </c>
+      <c r="DW5">
+        <v>83.489160472321203</v>
+      </c>
+      <c r="DX5">
+        <v>83.201742791202605</v>
+      </c>
+      <c r="DY5">
+        <v>82.570124814747103</v>
+      </c>
+      <c r="DZ5">
+        <v>82.8769403112546</v>
+      </c>
+      <c r="EA5">
+        <v>83.732466624010996</v>
+      </c>
+      <c r="EB5">
+        <v>84.140376633764404</v>
+      </c>
+      <c r="EC5">
+        <v>84.463215975809206</v>
+      </c>
+      <c r="ED5">
+        <v>85.021616606088003</v>
+      </c>
+      <c r="EE5">
+        <v>84.872178925754397</v>
+      </c>
+      <c r="EF5">
+        <v>84.320098576724206</v>
+      </c>
+      <c r="EG5">
+        <v>84.173919444213894</v>
+      </c>
+      <c r="EH5">
+        <v>84.378891133270898</v>
+      </c>
+      <c r="EI5">
+        <v>84.172604962373299</v>
+      </c>
+      <c r="EJ5">
+        <v>83.590845277206199</v>
+      </c>
+      <c r="EK5">
+        <v>82.930887177954403</v>
+      </c>
+      <c r="EL5">
+        <v>82.223559940237394</v>
+      </c>
+      <c r="EM5">
+        <v>81.0919834635977</v>
+      </c>
+      <c r="EN5">
+        <v>79.675168716837504</v>
+      </c>
+      <c r="EO5">
+        <v>77.557047028670098</v>
+      </c>
+      <c r="EP5">
+        <v>74.522523505462104</v>
+      </c>
+      <c r="EQ5">
+        <v>71.058651258828903</v>
+      </c>
+      <c r="ER5">
+        <v>67.240169648489896</v>
+      </c>
+      <c r="ES5">
+        <v>60.320962976969597</v>
+      </c>
+      <c r="ET5">
+        <v>56.8452506178199</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Sheets/calibration_referencepulses.xlsx
+++ b/Excel Sheets/calibration_referencepulses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kev\Documents\kxu\CMU\Year 1\Trimic-Gripper-Attachment-Signal-Processing\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D797F8DF-B4A2-4B56-983F-159A55E0C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB5D8F3-35AD-426D-B596-6A46E3A655E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D29F1BE-89AE-4FDC-BF50-A5D1E4CFB104}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:ET5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
